--- a/Instructions/Results_StudentID.xlsx
+++ b/Instructions/Results_StudentID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Course BUET\CSE471_Jan'18\CSE_472_Assignment_3_Recommender_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajid Hasan Apon\Desktop\ML Offline 3\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFBBA718-B29C-4D6D-B86D-AE079B601B13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6C17B97B-E19F-40F3-85EA-2C508F81511E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2B0C9EB4-8911-4EF6-82FF-D91E08F8A887}"/>
   </bookViews>
@@ -115,10 +115,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0B9AC5-2F9A-408B-B177-39C14F460105}">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -450,12 +450,12 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -478,39 +478,63 @@
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -533,39 +557,63 @@
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -588,28 +636,28 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>40</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
